--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_16.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.1, 11.62)]</t>
+          <t>[('0:00:34.860000', '0:00:42.080000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:01:43.420000', '0:01:55.040000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:29.965374', '0:00:34.307505')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08760545100584036</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['G:min/A#', 'C:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[['B:min', 'E', 'E/2']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[('0:00:06.820000', '0:00:08.760000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:59.162887', '0:01:05.559465')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[('0:00:06.415079', '0:00:16.608639')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:01:36.200000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.180000', '0:00:14.220000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:24.620000', '0:01:31.740000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1380952380952381</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G', 'D/3']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.402743, 19.871043)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(76.889251, 81.614512)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
